--- a/data/trans_orig/P25A$medico-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25A$medico-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF7E1BC-1959-4C62-9326-8CC5CAD45817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4FB48C-952A-4DC6-B5B1-0077F32E86CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC0AA1A5-7C17-48EA-B378-69AF7B836C5E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9977964F-A001-4077-9B12-A67D09AC268C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1115">
-  <si>
-    <t>Población según motivo para dejar de fumar en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1153">
+  <si>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -1327,10 +1327,148 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según motivo para dejar de fumar en 2012</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>21,22%</t>
@@ -1585,1368 +1723,1359 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>Población según motivo para dejar de fumar (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>Población según motivo para dejar de fumar en 2016</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
     <t>7,71%</t>
   </si>
   <si>
@@ -3013,9 +3142,6 @@
     <t>39,73%</t>
   </si>
   <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>38,17%</t>
   </si>
   <si>
@@ -3061,9 +3187,6 @@
     <t>15,68%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
     <t>21,2%</t>
   </si>
   <si>
@@ -3073,18 +3196,12 @@
     <t>8,71%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
     <t>16,61%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
     <t>17,8%</t>
   </si>
   <si>
@@ -3167,9 +3284,6 @@
   </si>
   <si>
     <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
   </si>
   <si>
     <t>15,92%</t>
@@ -3794,7 +3908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B856B7-DB6B-4BF0-9C7C-860E4F09224D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18641ADD-496F-4C53-96B1-8D0968D68C4C}">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5700,7 +5814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957E5A89-D5BC-42F9-AAD4-2A651FF1469C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5328299E-76FA-46D4-8739-D86BB0B8E14D}">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5791,28 +5905,28 @@
         <v>430</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5821,31 +5935,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5854,31 +5968,31 @@
         <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5887,31 +6001,31 @@
         <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>430</v>
+        <v>304</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5920,31 +6034,31 @@
         <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>430</v>
+        <v>469</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5953,31 +6067,31 @@
         <v>49</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>430</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5988,31 +6102,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6021,31 +6135,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>440</v>
+        <v>486</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>442</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>443</v>
+        <v>489</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>445</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>446</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6054,31 +6168,31 @@
         <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>454</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6087,13 +6201,13 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>456</v>
+        <v>502</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>50</v>
@@ -6102,16 +6216,16 @@
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>458</v>
+        <v>504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>459</v>
+        <v>505</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6120,31 +6234,31 @@
         <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>461</v>
+        <v>507</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>462</v>
+        <v>508</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>509</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>466</v>
+        <v>512</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6153,31 +6267,31 @@
         <v>49</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6188,31 +6302,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6224,28 +6338,28 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6254,13 +6368,13 @@
         <v>27</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>345</v>
@@ -6272,13 +6386,13 @@
         <v>59</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6287,7 +6401,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>12</v>
@@ -6296,7 +6410,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -6311,7 +6425,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6320,31 +6434,31 @@
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>504</v>
+        <v>550</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6353,31 +6467,31 @@
         <v>49</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -6388,31 +6502,31 @@
         <v>8</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>399</v>
+        <v>562</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6421,31 +6535,31 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>529</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -6454,31 +6568,31 @@
         <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>534</v>
+        <v>437</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>535</v>
+        <v>580</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>536</v>
+        <v>581</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>537</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6487,31 +6601,31 @@
         <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>538</v>
+        <v>583</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>277</v>
+        <v>584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>541</v>
+        <v>124</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>542</v>
+        <v>587</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>543</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>544</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6520,31 +6634,31 @@
         <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>545</v>
+        <v>590</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>547</v>
+        <v>592</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>548</v>
+        <v>593</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>549</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>550</v>
+        <v>595</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>553</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6553,31 +6667,31 @@
         <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>554</v>
+        <v>172</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>557</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>346</v>
+        <v>602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6588,31 +6702,31 @@
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>565</v>
+        <v>438</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>566</v>
+        <v>609</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>567</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6621,31 +6735,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>570</v>
+        <v>613</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>576</v>
+        <v>619</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6654,31 +6768,31 @@
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>579</v>
+        <v>622</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>581</v>
+        <v>624</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>582</v>
+        <v>625</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6687,31 +6801,31 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>585</v>
+        <v>628</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>586</v>
+        <v>629</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>587</v>
+        <v>630</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>588</v>
+        <v>631</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>589</v>
+        <v>632</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>590</v>
+        <v>633</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6720,31 +6834,31 @@
         <v>39</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>592</v>
+        <v>635</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>593</v>
+        <v>636</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>594</v>
+        <v>637</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>595</v>
+        <v>638</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6762,13 +6876,13 @@
         <v>208</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>405</v>
@@ -6777,7 +6891,7 @@
         <v>12</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -6788,31 +6902,31 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>603</v>
+        <v>646</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -6821,13 +6935,13 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
@@ -6836,16 +6950,16 @@
         <v>13</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6854,7 +6968,7 @@
         <v>27</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>419</v>
@@ -6863,22 +6977,22 @@
         <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6887,13 +7001,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
@@ -6902,16 +7016,16 @@
         <v>13</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -6920,31 +7034,31 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>628</v>
+        <v>669</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>633</v>
+        <v>674</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>634</v>
+        <v>675</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>635</v>
+        <v>676</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>636</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6953,16 +7067,16 @@
         <v>49</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>639</v>
+        <v>680</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>12</v>
@@ -6971,13 +7085,13 @@
         <v>61</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>641</v>
+        <v>682</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6988,16 +7102,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>284</v>
@@ -7006,13 +7120,13 @@
         <v>332</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>648</v>
+        <v>689</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>649</v>
+        <v>690</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -7021,31 +7135,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>650</v>
+        <v>691</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>651</v>
+        <v>692</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>652</v>
+        <v>693</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>653</v>
+        <v>694</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>654</v>
+        <v>695</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>657</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -7054,31 +7168,31 @@
         <v>27</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>390</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -7087,31 +7201,31 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>654</v>
+        <v>695</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -7120,31 +7234,31 @@
         <v>39</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>673</v>
+        <v>713</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>674</v>
+        <v>714</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -7153,7 +7267,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>12</v>
@@ -7162,22 +7276,22 @@
         <v>149</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>374</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -7188,31 +7302,31 @@
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>688</v>
+        <v>728</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>694</v>
+        <v>734</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -7221,31 +7335,31 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>523</v>
+        <v>740</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>701</v>
+        <v>742</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -7254,31 +7368,31 @@
         <v>27</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>702</v>
+        <v>743</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>703</v>
+        <v>744</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>704</v>
+        <v>745</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>705</v>
+        <v>746</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>706</v>
+        <v>747</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>707</v>
+        <v>748</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>348</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>708</v>
+        <v>749</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -7287,31 +7401,31 @@
         <v>36</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>536</v>
+        <v>751</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>522</v>
+        <v>752</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>710</v>
+        <v>753</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>711</v>
+        <v>754</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>421</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -7320,31 +7434,31 @@
         <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>715</v>
+        <v>758</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>716</v>
+        <v>759</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>717</v>
+        <v>760</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>718</v>
+        <v>761</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>719</v>
+        <v>762</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>720</v>
+        <v>763</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>721</v>
+        <v>764</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>722</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -7353,13 +7467,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>356</v>
@@ -7368,13 +7482,13 @@
         <v>12</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>727</v>
+        <v>770</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>728</v>
+        <v>771</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>399</v>
@@ -7388,31 +7502,31 @@
         <v>8</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>729</v>
+        <v>772</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>731</v>
+        <v>774</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -7421,31 +7535,31 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>740</v>
+        <v>604</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>358</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -7454,31 +7568,31 @@
         <v>27</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -7490,28 +7604,28 @@
         <v>407</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>401</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -7520,31 +7634,31 @@
         <v>39</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -7553,31 +7667,31 @@
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>771</v>
+        <v>475</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>773</v>
+        <v>814</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>774</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -7606,7 +7720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB76673-D0E7-4207-A80B-EFD96AEF02AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB78-AEFD-4DC3-AAE0-DD21A5987F83}">
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7623,7 +7737,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7694,31 +7808,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>781</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7730,28 +7844,28 @@
         <v>116</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>782</v>
+        <v>822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>784</v>
+        <v>824</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>785</v>
+        <v>825</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>207</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>787</v>
+        <v>827</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>788</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7760,28 +7874,28 @@
         <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>789</v>
+        <v>829</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>790</v>
+        <v>830</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>791</v>
+        <v>831</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>792</v>
+        <v>832</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>793</v>
+        <v>833</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>706</v>
+        <v>747</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>795</v>
+        <v>835</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>109</v>
@@ -7793,31 +7907,31 @@
         <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>796</v>
+        <v>836</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>797</v>
+        <v>837</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>798</v>
+        <v>838</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>799</v>
+        <v>839</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>543</v>
+        <v>840</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>800</v>
+        <v>841</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>801</v>
+        <v>842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>803</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7826,31 +7940,31 @@
         <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>804</v>
+        <v>845</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>805</v>
+        <v>846</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>812</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7859,31 +7973,31 @@
         <v>49</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>814</v>
+        <v>855</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>815</v>
+        <v>856</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>816</v>
+        <v>857</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>818</v>
+        <v>859</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>821</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7897,28 +8011,28 @@
         <v>376</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>822</v>
+        <v>863</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>824</v>
+        <v>865</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>826</v>
+        <v>867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>827</v>
+        <v>868</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7927,31 +8041,31 @@
         <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>831</v>
+        <v>872</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>833</v>
+        <v>874</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>834</v>
+        <v>875</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>835</v>
+        <v>876</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>836</v>
+        <v>877</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>837</v>
+        <v>878</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7960,31 +8074,31 @@
         <v>27</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>838</v>
+        <v>879</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>839</v>
+        <v>880</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>841</v>
+        <v>882</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>842</v>
+        <v>883</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>843</v>
+        <v>884</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>390</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>844</v>
+        <v>885</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7993,31 +8107,31 @@
         <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>824</v>
+        <v>865</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>847</v>
+        <v>888</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>848</v>
+        <v>889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>850</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -8026,31 +8140,31 @@
         <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>853</v>
+        <v>894</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>854</v>
+        <v>895</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>855</v>
+        <v>896</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>856</v>
+        <v>897</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>857</v>
+        <v>898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>858</v>
+        <v>899</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>859</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -8068,22 +8182,22 @@
         <v>371</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>860</v>
+        <v>901</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -8094,31 +8208,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>571</v>
+        <v>614</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>865</v>
+        <v>906</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>867</v>
+        <v>908</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -8130,28 +8244,28 @@
         <v>29</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>869</v>
+        <v>910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>870</v>
+        <v>911</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>871</v>
+        <v>912</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>872</v>
+        <v>913</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>873</v>
+        <v>914</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -8160,31 +8274,31 @@
         <v>27</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>875</v>
+        <v>916</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>876</v>
+        <v>917</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>878</v>
+        <v>919</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>879</v>
+        <v>920</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>880</v>
+        <v>921</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>881</v>
+        <v>922</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>882</v>
+        <v>923</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -8193,13 +8307,13 @@
         <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
@@ -8211,13 +8325,13 @@
         <v>319</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>884</v>
+        <v>599</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -8226,31 +8340,31 @@
         <v>39</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>894</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -8259,7 +8373,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>12</v>
@@ -8274,16 +8388,16 @@
         <v>12</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -8297,28 +8411,28 @@
         <v>422</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>898</v>
+        <v>938</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>899</v>
+        <v>939</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>525</v>
+        <v>940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>790</v>
+        <v>830</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -8327,25 +8441,25 @@
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>900</v>
+        <v>941</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>578</v>
+        <v>621</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>901</v>
+        <v>942</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>591</v>
+        <v>634</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>902</v>
+        <v>943</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>231</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>903</v>
+        <v>944</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>306</v>
@@ -8360,31 +8474,31 @@
         <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>904</v>
+        <v>945</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>905</v>
+        <v>946</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>906</v>
+        <v>947</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>907</v>
+        <v>948</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>908</v>
+        <v>586</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>910</v>
+        <v>950</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>447</v>
+        <v>493</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>911</v>
+        <v>951</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -8393,31 +8507,31 @@
         <v>36</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>912</v>
+        <v>952</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>583</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>914</v>
+        <v>954</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>83</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>915</v>
+        <v>955</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -8426,31 +8540,31 @@
         <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>916</v>
+        <v>956</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>918</v>
+        <v>958</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>919</v>
+        <v>959</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>920</v>
+        <v>960</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>921</v>
+        <v>961</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>922</v>
+        <v>962</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>923</v>
+        <v>963</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -8459,31 +8573,31 @@
         <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>924</v>
+        <v>964</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>925</v>
+        <v>965</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>926</v>
+        <v>966</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>927</v>
+        <v>967</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>929</v>
+        <v>969</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>931</v>
+        <v>971</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>932</v>
+        <v>972</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -8497,28 +8611,28 @@
         <v>16</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>933</v>
+        <v>973</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>934</v>
+        <v>974</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>535</v>
+        <v>975</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>935</v>
+        <v>976</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>936</v>
+        <v>977</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>421</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>937</v>
+        <v>978</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -8527,31 +8641,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>938</v>
+        <v>979</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>940</v>
+        <v>981</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>941</v>
+        <v>982</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>942</v>
+        <v>983</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>943</v>
+        <v>984</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>944</v>
+        <v>985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>945</v>
+        <v>986</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>946</v>
+        <v>987</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -8560,13 +8674,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
@@ -8575,7 +8689,7 @@
         <v>13</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>402</v>
@@ -8584,7 +8698,7 @@
         <v>12</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>948</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -8593,10 +8707,10 @@
         <v>36</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>949</v>
+        <v>990</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>292</v>
@@ -8608,16 +8722,16 @@
         <v>13</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>950</v>
+        <v>991</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>952</v>
+        <v>993</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -8626,31 +8740,31 @@
         <v>39</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>953</v>
+        <v>994</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>954</v>
+        <v>995</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>955</v>
+        <v>996</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>956</v>
+        <v>997</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>957</v>
+        <v>998</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>958</v>
+        <v>999</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>960</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -8668,22 +8782,22 @@
         <v>252</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>961</v>
+        <v>1002</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>963</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -8694,13 +8808,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>964</v>
+        <v>1005</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>965</v>
+        <v>1006</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
@@ -8709,16 +8823,16 @@
         <v>13</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>521</v>
+        <v>1007</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>966</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8727,13 +8841,13 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>967</v>
+        <v>1009</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>968</v>
+        <v>1010</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>940</v>
+        <v>981</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
@@ -8742,16 +8856,16 @@
         <v>13</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>524</v>
+        <v>1011</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>969</v>
+        <v>1012</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>970</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8760,22 +8874,22 @@
         <v>27</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>971</v>
+        <v>1014</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>972</v>
+        <v>1015</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>973</v>
+        <v>1016</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>974</v>
+        <v>1017</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>975</v>
+        <v>1018</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>51</v>
@@ -8784,7 +8898,7 @@
         <v>37</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>976</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8793,13 +8907,13 @@
         <v>36</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>833</v>
+        <v>874</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>911</v>
+        <v>951</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
@@ -8808,7 +8922,7 @@
         <v>13</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>125</v>
@@ -8817,7 +8931,7 @@
         <v>12</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>977</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8826,31 +8940,31 @@
         <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>978</v>
+        <v>1021</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>979</v>
+        <v>1022</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>980</v>
+        <v>1023</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>981</v>
+        <v>1024</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>982</v>
+        <v>1025</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>983</v>
+        <v>1026</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>984</v>
+        <v>1027</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>985</v>
+        <v>1028</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>986</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8859,31 +8973,31 @@
         <v>49</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>106</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>987</v>
+        <v>1030</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>988</v>
+        <v>1031</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>989</v>
+        <v>1032</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>990</v>
+        <v>1033</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>991</v>
+        <v>457</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>847</v>
+        <v>888</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8894,31 +9008,31 @@
         <v>8</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>992</v>
+        <v>1034</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>993</v>
+        <v>1035</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>994</v>
+        <v>1036</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>995</v>
+        <v>1037</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>996</v>
+        <v>1038</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>997</v>
+        <v>1039</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>998</v>
+        <v>1040</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>999</v>
+        <v>1041</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1000</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -8927,31 +9041,31 @@
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1001</v>
+        <v>1043</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1002</v>
+        <v>1044</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>1003</v>
+        <v>1045</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1004</v>
+        <v>1046</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1005</v>
+        <v>1047</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>1006</v>
+        <v>1048</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1007</v>
+        <v>450</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1008</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -8960,31 +9074,31 @@
         <v>27</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1009</v>
+        <v>1050</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1010</v>
+        <v>1051</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1011</v>
+        <v>562</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1012</v>
+        <v>1052</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1013</v>
+        <v>1053</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1014</v>
+        <v>476</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1015</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -8993,31 +9107,31 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1016</v>
+        <v>1055</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>1017</v>
+        <v>1056</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>470</v>
+        <v>516</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>536</v>
+        <v>751</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1018</v>
+        <v>1057</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>1019</v>
+        <v>1058</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>1020</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -9026,31 +9140,31 @@
         <v>39</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>1021</v>
+        <v>1060</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1022</v>
+        <v>1061</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>1023</v>
+        <v>1062</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>1024</v>
+        <v>1063</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1025</v>
+        <v>1064</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>1026</v>
+        <v>1065</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>1027</v>
+        <v>1066</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>1028</v>
+        <v>1067</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1029</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -9059,31 +9173,31 @@
         <v>49</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>1030</v>
+        <v>1069</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>842</v>
+        <v>883</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>1031</v>
+        <v>1070</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1032</v>
+        <v>1071</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>1033</v>
+        <v>1072</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>1034</v>
+        <v>1073</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>1035</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -9094,31 +9208,31 @@
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1036</v>
+        <v>1075</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>1037</v>
+        <v>1076</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>1038</v>
+        <v>1077</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>1039</v>
+        <v>1078</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>1040</v>
+        <v>1079</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>1041</v>
+        <v>1080</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1042</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -9127,28 +9241,28 @@
         <v>18</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1043</v>
+        <v>453</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>1044</v>
+        <v>1082</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>1045</v>
+        <v>1083</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1046</v>
+        <v>1084</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>1047</v>
+        <v>1085</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>726</v>
+        <v>769</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>1048</v>
+        <v>1086</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>386</v>
@@ -9160,13 +9274,13 @@
         <v>27</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>1049</v>
+        <v>1087</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>1050</v>
+        <v>1088</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
@@ -9175,13 +9289,13 @@
         <v>13</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>1051</v>
+        <v>1089</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>1052</v>
+        <v>1090</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>204</v>
@@ -9193,16 +9307,16 @@
         <v>36</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>1053</v>
+        <v>1091</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>1054</v>
+        <v>1092</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>1055</v>
+        <v>1093</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>12</v>
@@ -9211,13 +9325,13 @@
         <v>33</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>873</v>
+        <v>914</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>1056</v>
+        <v>1094</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -9226,31 +9340,31 @@
         <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>1057</v>
+        <v>1095</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1058</v>
+        <v>1096</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>1059</v>
+        <v>1097</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>1060</v>
+        <v>1098</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>1062</v>
+        <v>1100</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1064</v>
+        <v>1102</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>1065</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -9259,31 +9373,31 @@
         <v>49</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>1067</v>
+        <v>1105</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>1068</v>
+        <v>1106</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>1069</v>
+        <v>1107</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>1070</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -9294,31 +9408,31 @@
         <v>8</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>1071</v>
+        <v>1109</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>938</v>
+        <v>979</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>1072</v>
+        <v>1110</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>1073</v>
+        <v>1111</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>1074</v>
+        <v>1112</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>1075</v>
+        <v>1113</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>1076</v>
+        <v>1114</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>1077</v>
+        <v>1115</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1078</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -9327,31 +9441,31 @@
         <v>18</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>1079</v>
+        <v>1117</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1080</v>
+        <v>1118</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>1081</v>
+        <v>1119</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1082</v>
+        <v>1120</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>1083</v>
+        <v>1121</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1085</v>
+        <v>1123</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>1086</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -9360,31 +9474,31 @@
         <v>27</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>1087</v>
+        <v>1125</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1088</v>
+        <v>1126</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>1090</v>
+        <v>1128</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1091</v>
+        <v>1129</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>1092</v>
+        <v>1130</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>577</v>
+        <v>620</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1093</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -9393,31 +9507,31 @@
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1051</v>
+        <v>1089</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>1094</v>
+        <v>1132</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1095</v>
+        <v>1133</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>392</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1096</v>
+        <v>1134</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1097</v>
+        <v>1135</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>1098</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -9426,31 +9540,31 @@
         <v>39</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>1099</v>
+        <v>1137</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1100</v>
+        <v>1138</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1101</v>
+        <v>1139</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>1102</v>
+        <v>1140</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1103</v>
+        <v>1141</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>1104</v>
+        <v>1142</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>1105</v>
+        <v>1143</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1106</v>
+        <v>1144</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1107</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -9459,28 +9573,28 @@
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>1108</v>
+        <v>1146</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>305</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>1109</v>
+        <v>1147</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>1110</v>
+        <v>1148</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>1111</v>
+        <v>1149</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>1112</v>
+        <v>1150</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>1113</v>
+        <v>1151</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>1114</v>
+        <v>1152</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>397</v>
